--- a/May 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_May.xlsx
+++ b/May 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_May.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\May 2018\Saturday_Sunday_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{673E1D74-FDF0-46DD-8A64-AB6F0885F515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BDA2A6-6C74-4B62-985B-322ED8707B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{985AF4B6-2488-4375-9D6F-05F1E68CBF3E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{6EF4B878-F3DE-4A92-98E3-D63D25D39AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C4BD1-BB7F-4982-84C3-AB6651E9D98C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B98B1A-823C-43D2-BFF8-17A3AD2C7AD7}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{E460F627-939A-41DF-85C6-17EC61B5CAE0}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{8181E6BA-89E4-4F16-AC63-E2183FDC4C79}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{99D24964-9B1D-4E5B-9ABC-EBA219D72937}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{63AB8D39-16EB-41A6-A206-403929912162}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{A3662ECD-AB8F-43B3-825E-2FED0B5DC944}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{A3F66276-3F7A-4FCC-9ADD-431A3189C906}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{ECF220D0-77D3-4DFD-8FFA-EB2820783D72}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{887C6F1F-9188-4DF9-8445-DC61280B2CA8}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{7625F764-E7A5-4C63-A4E8-22A2DA17FE36}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{C2247CA6-0883-4213-B4C1-F9B044CFAB87}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{D9C6F140-3935-444C-B15F-04F2A4E44BD5}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{D1681CF9-322F-46C9-A5F1-3AAA6CA4A84C}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{22A35413-732D-47B6-874F-B4C771959219}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{88EC1715-746F-416B-AC8C-7389E074AA22}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{5FEDDFF1-2B92-4905-8E48-635FF1566F9C}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{22A2515E-F4F2-4497-B117-03B8195F5B3E}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{130A44F7-3D7E-4A3F-B7A2-6030C3AF3012}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{63D0656F-137F-443E-A622-9FA2895FA60C}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{02437120-D9C5-497D-82AC-DE4172C53B1A}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{201AAF14-F22A-4E25-827E-75A720D68152}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{398031E8-781F-4025-80A7-0EB5F948CC8D}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{80066B42-F993-4649-91D0-8E61A297A267}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{BDD7BCFA-80AD-46CA-95C8-910A41BFCDE0}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{95D1770D-022B-4881-9554-D6620B7B4006}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{E573A3AC-B154-4A05-BE92-07C1C58BC5CD}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{79E457A9-0150-4698-90DB-12654C0A4173}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{357C7C9E-9FBC-44F2-AFD0-B06AB00230DE}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{74F6ABE0-C79B-459F-AAA2-C5FAED0D0A48}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{D919DAAA-1522-468B-8B5D-6C0E1C2EDCBC}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{BC8517E6-5A22-46BC-BCE9-E73C18D0EF5E}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{BAC37BD7-E548-4443-A331-EF4EDA88CFE4}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{7399B0DA-587C-483D-80AE-DB8F98BD4AC8}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{96431CF1-DECA-4BC2-BCAF-17E7A5923337}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{A217D05A-C029-46DD-B5EE-45227A5EDCDA}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{B5F8E498-66C0-4084-B824-CEB41F9970CC}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{6995F878-5C4E-457A-893B-1D1742672BE7}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{9A10156A-FA8A-4CEC-B8E4-BB6668631AC8}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{6570D23F-9C17-400B-99D2-F552B261A546}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{20380FBC-B917-4BFF-90B1-DF79386D6464}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{D3CF1BE0-8EB2-4044-AB66-1A663886618A}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{3AEEB788-0E35-4311-99A7-0DD478740894}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{53B5A9F2-33A8-4522-A2A4-D8F492F14FD3}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{A9753B78-73AC-4D61-BFAF-BC9B3DF34D49}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{3F2D8091-91A5-46A2-9A9A-8837730947D1}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{74807137-6402-4C26-BAA7-34DC75E93277}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{60F74007-3ADC-4011-BED0-EB301B4577EC}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{E79A16AC-C0DC-4D50-B10B-FF573FBD0FC8}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{6B6931C0-06F7-43AE-89B4-1DDA72580A1B}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{49FD1045-8120-4900-B62F-B5348C2E06B5}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{70A33DED-AFC7-44EA-992F-21C3649EAAC2}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{4E1C962E-B061-4406-8B73-729A4CF6739B}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{40218224-DACE-4787-9ABA-3AFE8B123C85}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{57B3C1AB-F38E-48AA-AE2D-8392C6CF0F64}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{11F506F2-0459-4559-B86F-0080DBFD195F}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{7FFCFECD-373D-4135-A306-F9A76D9845B6}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{1B6914E2-6E1B-4E9E-97E6-B022545B1478}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{1826CA1C-8A6E-417E-A10A-0CF21B3A8F96}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{B0258E37-AE15-4960-B463-FEE11C53237F}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{3C3220A3-4AC6-4E8D-970F-CB0BC9B041E9}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{D9A06E7F-0EDA-4941-83EB-012FB21D66AA}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{CE33CA72-A934-4831-B957-19CFBD4E8816}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{C669AA36-5624-4899-AE48-A303F3A2CF6A}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{93A10CCC-8F92-493E-94C7-E13C627E507F}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{25051C7D-3DDA-4C06-AF0B-E1B571681B52}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{87F054EC-C04F-463A-A3EB-86B393532055}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{73838708-4A8F-46E9-A877-C5838DC18B99}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{21962CCC-109D-4E28-B3EF-D73A971B4BED}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{F732B811-18C5-4332-809C-A7F61B5350D6}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{CD5B49C6-6E39-4A8C-997D-E37251DE0E25}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{A4CC0B75-C5C2-4A6C-9749-A0F0D8329DDF}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{46A918C6-EACB-4F07-B05A-84AEC5C0D32C}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{5582CCFB-20D5-4CAF-A0B7-8B6052240030}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{536FFDDB-E1F0-41A0-A329-46065A5C52EA}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{43AA7562-07F2-4938-AF78-681D600AACC9}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{F39594EA-796B-4C86-B8CF-8EF7A6FE03CB}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{36135515-FA20-4D0C-89D9-4B1C7C60E69F}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{B677933F-D425-4BCD-954F-BA6456FCB166}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{FDE2A3B5-E455-4C82-BA44-9A6056554816}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{AFCE4B66-0D95-4EB8-845B-E5B60757F9D8}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{C38203A3-B6D3-4F45-B17A-8AC6BBC82E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2347CA7-3EBF-4ACB-86B4-75D225BB8D2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37E08D9-8848-4C0F-8BE9-5C7624598957}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{1A0566CB-6ABE-41DA-AEFC-523D9060646D}"/>
+  <autoFilter ref="A3:E6" xr:uid="{1F7CE0A0-B41E-4B34-87C5-C71F7EFADCB9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3C6F52BB-12F9-4D54-8FF2-D770DE509DC6}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{809D04E6-4B9E-46C3-8A41-7DB8ED072602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A2A02-B6D9-48E3-B21D-627E69546CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9B71DC-400E-4142-8E2B-104EDF00AF9B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{FFF96D8C-0AC1-4F88-B69E-F2B2E4FB02C7}"/>
+  <autoFilter ref="A3:E6" xr:uid="{8AA7803C-EE38-4BC6-9C3D-0013302D3646}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4D0775E7-B4EB-4DCB-9057-44D3121B2E29}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3C0E9E50-5652-47F8-99D4-A9C7D008E18D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFBC132-FC94-4B5A-9953-214E0019DBB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22028564-C6DF-4832-9413-EBEA8BCC145C}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{86747492-7A10-4EAF-8650-71D603CCF627}"/>
+  <autoFilter ref="A3:F9" xr:uid="{3FF8B1A1-387C-4A4E-A6A4-B8CBC9B6FB81}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4BA37285-1038-460F-9E52-2B6F75E93B63}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{423C476F-0777-47A0-98A8-630F824E4B83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3533B1C5-A1E5-43F7-A688-A2884F48B682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F61267-B6F5-4200-8893-D80270EE70F5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{242D6DA5-04C1-4EF0-98A0-D1FB053B8D1C}"/>
+  <autoFilter ref="A3:B5" xr:uid="{AC987761-53A3-4262-9D58-6E2E78544148}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5517FF19-25A0-4538-A08B-842F3C58B1FA}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F2DDD8AE-DB74-4699-99B5-9093ACF11CAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A507FDB-DCFF-4D5F-9982-83DA1A780146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF46B2A9-2471-4588-B97A-04023201F448}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{18756754-776D-4CD4-AA42-318F1703F449}"/>
+  <autoFilter ref="A3:A5" xr:uid="{E0BF3E6D-3E0E-4D34-9EEF-833AF8801329}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F9D45AAE-61C1-4A5C-A428-4D916CEA2346}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9C82A00C-CAFF-4FE4-BD24-24500CCA436E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA591BEA-FC0B-4D81-A14D-E13A9E359F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5500318-C33B-49C7-9678-73E15F629AE5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{E6BB2734-89B5-4EC1-91D0-724725E0DAE2}"/>
+  <autoFilter ref="A3:B6" xr:uid="{510FE166-B43E-40CB-8C7A-170C4A45CDB4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{080381B0-8513-44A8-87F2-4C5469BEA7A5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3566C615-11E5-432E-BDB7-E12938794DEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC59811-73F9-475E-9DCC-EC5E6568EFBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FE9228-DE2C-4E52-ADE8-9EECC1591A64}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{58261026-CE64-469D-B671-E303A9FAB656}"/>
+  <autoFilter ref="A3:C9" xr:uid="{E46E9F3F-BE2D-4D4F-836A-13E53024F2A5}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CD712E57-8DD8-4DA3-9E4A-73DADF901808}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8B20BB01-C661-42E3-B357-62A1FFAF66F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B37FA-2A0C-4AE5-B907-E6DBEFD7355B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75648F29-526C-4FEA-8C59-4E4C5873E65D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{128A5831-F1C1-4188-9961-26A0E699D095}"/>
+  <autoFilter ref="A3:A5" xr:uid="{341906B8-BBBA-4CD3-9962-EDB35C43FBB3}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{25B294C0-AE5B-4FCD-856D-6764FDF0B1A3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{668849D5-F9BE-41E4-99F3-6D23D04C095F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E5205-805D-4D9B-AA78-64862DDCC0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED41D76D-9166-4464-9636-810B15DF0F6A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{A3870E56-EC95-4AE9-9004-6A74EEDDA1EE}"/>
+  <autoFilter ref="A3:C9" xr:uid="{5A3FBB98-3A40-432A-B9A0-A78F6B0AEF9D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C789CFBC-D30F-4599-9EF7-8F40B1757F78}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8EFA16B4-AF9A-4A39-A967-B2593FD2DF89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188887E-139D-4501-BC59-FFFCDFB448AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB37004-68BD-4EFF-81D4-1E9920D0E5AA}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{C9A63F86-9184-461D-9C87-F00FD0B4ACEA}"/>
+  <autoFilter ref="A3:C9" xr:uid="{6C4F327F-32AE-456F-8C29-B3C1D456025C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{66BF8B81-6FBF-4098-9D20-4964165DD4C8}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6A8C82BE-47C7-4D1D-89DC-757FEC4F8195}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E3EDB7-6C78-467A-9E94-AF16703B2B36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0041379A-C831-4D88-B202-DFB172FF8660}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>12481277.953022081</v>
+        <v>15993079.27920448</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{86877A08-7FF1-4F02-A381-566A802B88C1}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7DCFBD46-AD17-4E60-A35A-AE40F63FF936}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1DFC23-B410-4A91-8513-A5A32355B66D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA17A2C4-2ACB-47A9-9066-EB28E2C6004A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{DC76D9A9-5230-48EE-8E7B-99C1175700DB}"/>
+  <autoFilter ref="A3:A6" xr:uid="{092C2197-2207-41F3-BB64-6E99BD9E0B13}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{176D7F33-718E-4BD2-999C-B5354D7636F7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F3DA473E-6375-491C-8B08-A474A0D5B586}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13370918-E27F-4203-8B63-A87698A180C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22A403A-D6BD-4706-A4BC-91A4484B4588}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{84036A10-883B-4361-8940-C165BC78D6C4}"/>
+  <autoFilter ref="A3:B5" xr:uid="{09D4CB6A-B1AF-4A80-85C8-583D409C9F48}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B07A7D20-AB87-4414-8A53-70581102B85C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6506C692-47A9-4622-9765-04D66C12440E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F765C2FB-5A35-41AC-B2A5-ACDC5D2C751C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80993B00-5B2C-4BD9-978B-39148D52E802}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>57.16</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>35.96</v>
+        <v>57.16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{170E6624-587C-4483-B8E2-4D1EE5753444}"/>
+  <autoFilter ref="A3:C9" xr:uid="{E6AEA55B-167D-40C8-BAE3-36849CC72EB7}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E061E38E-6650-43D4-92F2-6C1C9FA869C5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{40D1605B-192B-429E-ABA4-E1445988284C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8E37DD-958A-4026-8066-2162BB588179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C63E4D3-5BB9-4A27-9EB7-A402269E1F1E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>228.64</v>
+        <v>143.84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>827.08</v>
+        <v>1314.6799999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{8642B014-6A02-49B5-8805-CDAF85BA227D}"/>
+  <autoFilter ref="A3:F9" xr:uid="{ECD43F0E-38F7-4213-9A8D-98CC039ABF99}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F24FB389-688E-414F-8BE7-0CBF9DE53079}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8609EF50-0A9E-46DC-BC37-CE63AF2FB4B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82C667-F60D-4F36-9D54-CFB041AF4ECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE030D22-0D78-43BD-8148-75240CD1E3CD}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>9245.39</v>
       </c>
       <c r="F5">
-        <v>135.903616</v>
+        <v>85.498496000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>13724.68</v>
       </c>
       <c r="F9">
-        <v>491.61635200000006</v>
+        <v>781.44579199999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{3EDC9727-4F6E-4DCF-AFA4-F9E55CAAD569}"/>
+  <autoFilter ref="A3:F9" xr:uid="{414914ED-25D8-43F0-9E87-AF4BA9B9165E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FF86F9C2-6788-40C9-8100-5AB8DD9D8404}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5827EA33-0DDF-4942-A024-712D14B5EFD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97FDA03-CA5A-4CD6-B3B1-6AC66A80D8C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73029080-7DBA-4AAA-AE90-B0C654862D44}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{FD6D4AF7-E8CF-4B0D-8B4D-622F09CF23AA}"/>
+  <autoFilter ref="A3:F9" xr:uid="{A9A9E147-9896-4001-BE53-BEB97E5FCA98}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6626AF2F-6418-478E-91A7-DCB99ABA9230}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E40AB74C-016C-46A0-B2D6-660B78F2F439}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983068BB-4CBE-4450-B534-63907933412C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842E907-A91B-47B0-A4A7-4409533E60EE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{8D02C673-6B6B-49B4-8873-34FF188BD8DF}"/>
+  <autoFilter ref="A3:F9" xr:uid="{5AE3DE48-B3F7-4638-BD65-DBA2A05C5ECC}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{06F6D45A-3D62-402F-BF74-F373F191FD1E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6850680E-0533-4EEE-AACD-009CE369AF43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
